--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Northern Giant Petrel_South Georgia (Islas Georgias del Sur).xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Northern Giant Petrel_South Georgia (Islas Georgias del Sur).xlsx
@@ -2907,13 +2907,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7420A70F-76A6-4056-BA29-54E48224B6B4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A33BC6AC-767F-4883-8620-8125F2E339D9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{132B064A-6A3B-4661-ABF6-9BF401B68257}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68DE9ECE-D8CC-4BD0-903A-90292D7224BA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCD00F7C-FE81-4D0C-A33E-3ACF613809C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{645EC522-CF09-4447-BC85-A2DDF71BD3E5}"/>
 </file>